--- a/UnitTestHVACChecker/测试数据/测试数据_exceptSomeRoom.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_exceptSomeRoom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="房间（包含需要除去的房间大于等于小于等于）" sheetId="47" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>是否需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,25 +514,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.375" customWidth="1"/>
+    <col min="9" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,22 +561,25 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,19 +608,22 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>600</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -634,19 +652,22 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -675,19 +696,22 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>501</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -716,19 +740,22 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>500</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -757,19 +784,22 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>200</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -798,19 +828,22 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
         <v>200</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -839,15 +872,18 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>200</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -859,25 +895,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M6"/>
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.375" customWidth="1"/>
+    <col min="9" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,22 +942,25 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -950,19 +989,22 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>600</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -991,19 +1033,22 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1032,19 +1077,22 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>499</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1073,19 +1121,22 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>499</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1114,19 +1165,22 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>200</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1155,19 +1209,22 @@
         <v>1</v>
       </c>
       <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
         <v>200</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1196,41 +1253,46 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>200</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="30.25" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="9" max="10" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,18 +1321,21 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
